--- a/resources/01 Verbs.xlsx
+++ b/resources/01 Verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/projects/education/languages/deutsch/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA45152-CAE8-A14A-AFF6-EA554063001E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E02BC0-2249-6148-BED5-10A2A2E29B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
   <si>
     <t>esse</t>
   </si>
@@ -120,12 +120,6 @@
     <t>read</t>
   </si>
   <si>
-    <t xml:space="preserve">sehen </t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
     <t>bringen</t>
   </si>
   <si>
@@ -312,12 +306,6 @@
     <t>to sell</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>heißen</t>
   </si>
   <si>
@@ -348,21 +336,12 @@
     <t>think</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>verb</t>
   </si>
   <si>
     <t>meaning</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>they</t>
-  </si>
-  <si>
     <t>brauche</t>
   </si>
   <si>
@@ -798,21 +777,6 @@
     <t>probiert</t>
   </si>
   <si>
-    <t>sehe</t>
-  </si>
-  <si>
-    <t>siehst</t>
-  </si>
-  <si>
-    <t>sieht</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>seht</t>
-  </si>
-  <si>
     <t>spiele</t>
   </si>
   <si>
@@ -873,17 +837,271 @@
     <t>er/sie/es</t>
   </si>
   <si>
-    <t>you2</t>
-  </si>
-  <si>
-    <t>you3</t>
+    <t>to stand</t>
+  </si>
+  <si>
+    <t>wir</t>
+  </si>
+  <si>
+    <t>ich</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>ihr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sie </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>steh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>steh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>steh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>steh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>steh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">en </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>ˈzeːən</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sieh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sieh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +1121,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -925,10 +1157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,19 +1345,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J50" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J50" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:J51" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
+    <sortCondition ref="A1:A51"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3DE7D73C-FCAF-9549-ABE5-C17CDC1929DB}" name="id"/>
     <tableColumn id="2" xr3:uid="{E4B399BA-18EE-7B45-A60A-87FA488B3B21}" name="verb"/>
     <tableColumn id="3" xr3:uid="{FACD9D36-D07A-CE42-A4CD-8531722F73DA}" name="meaning"/>
-    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="I" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="you" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="we" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="you2" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="you3" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="they" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C01E427A-7481-7041-AE7A-29D451F2A633}" name="IPA"/>
+    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1449,106 +1687,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1558,15 +1786,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1576,75 +1801,66 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1654,15 +1870,12 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
@@ -1676,78 +1889,69 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>81</v>
       </c>
       <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2"/>
@@ -1758,71 +1962,62 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>60</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1832,159 +2027,138 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>166</v>
       </c>
       <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2"/>
@@ -1995,14 +2169,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2"/>
@@ -2013,53 +2184,47 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2071,60 +2236,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>27</v>
@@ -2133,21 +2292,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2155,110 +2311,98 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2"/>
@@ -2269,46 +2413,40 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="2"/>
@@ -2319,30 +2457,27 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>25</v>
@@ -2351,15 +2486,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2369,47 +2501,44 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -2430,63 +2559,57 @@
         <v>9</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>13</v>
@@ -2495,307 +2618,306 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="H50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2816,7 +2938,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2831,7 +2953,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/01 Verbs.xlsx
+++ b/resources/01 Verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E02BC0-2249-6148-BED5-10A2A2E29B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D159C5-0CB0-2E41-A5D9-0B417A14474A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="258">
   <si>
     <t>esse</t>
   </si>
@@ -63,9 +63,6 @@
     <t>machen</t>
   </si>
   <si>
-    <t>make, do</t>
-  </si>
-  <si>
     <t>spielen</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
   </si>
   <si>
     <t>kommen</t>
-  </si>
-  <si>
-    <t>come</t>
   </si>
   <si>
     <t>rauchen</t>
@@ -1095,6 +1089,108 @@
       </rPr>
       <t>t</t>
     </r>
+  </si>
+  <si>
+    <t>müssen</t>
+  </si>
+  <si>
+    <t>ˈmʏsn</t>
+  </si>
+  <si>
+    <t>have to/need to</t>
+  </si>
+  <si>
+    <t>muss</t>
+  </si>
+  <si>
+    <t>musst</t>
+  </si>
+  <si>
+    <t>müsst</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>komme</t>
+  </si>
+  <si>
+    <t>kommst</t>
+  </si>
+  <si>
+    <t>kommt</t>
+  </si>
+  <si>
+    <t>komment</t>
+  </si>
+  <si>
+    <t>ˈkɔmən</t>
+  </si>
+  <si>
+    <t>to make/to do</t>
+  </si>
+  <si>
+    <t>ˈmaxn</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>macht</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>sitze</t>
+  </si>
+  <si>
+    <t>sitzt</t>
+  </si>
+  <si>
+    <t>stizt</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>ˈzɪtsn</t>
+  </si>
+  <si>
+    <t>lerne</t>
+  </si>
+  <si>
+    <t>lernst</t>
+  </si>
+  <si>
+    <t>lernt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈlɛrnən </t>
+  </si>
+  <si>
+    <t>ˈʃpiːlən</t>
+  </si>
+  <si>
+    <t>bringe</t>
+  </si>
+  <si>
+    <t>bringst</t>
+  </si>
+  <si>
+    <t>bringt</t>
+  </si>
+  <si>
+    <t>ˈbrɪŋən</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1264,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1345,22 +1459,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:J51" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:K53" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="bringen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
     <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{E4B399BA-18EE-7B45-A60A-87FA488B3B21}" name="verb"/>
     <tableColumn id="3" xr3:uid="{FACD9D36-D07A-CE42-A4CD-8531722F73DA}" name="meaning"/>
     <tableColumn id="1" xr3:uid="{C01E427A-7481-7041-AE7A-29D451F2A633}" name="IPA"/>
-    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C12085EA-3831-4F45-B71A-DDC11A0CC4F4}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1687,16 +1808,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
@@ -1705,78 +1826,83 @@
     <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>202</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1785,13 +1911,14 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1800,82 +1927,103 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>110</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
@@ -1888,71 +2036,74 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>190</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>191</v>
       </c>
-      <c r="E10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" t="s">
-        <v>193</v>
-      </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1961,63 +2112,66 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2026,155 +2180,208 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
         <v>166</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>167</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>168</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21" t="s">
         <v>169</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="E21" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2183,227 +2390,247 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
       <c r="D26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
         <v>155</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>156</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>157</v>
       </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
       <c r="D31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
         <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2412,42 +2639,44 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>85</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2456,42 +2685,44 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
       <c r="D35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2500,45 +2731,47 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>222</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -2559,158 +2792,167 @@
         <v>9</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
+      <c r="C40" t="s">
+        <v>253</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>214</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>2</v>
@@ -2733,71 +2975,74 @@
       <c r="J44" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>62</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
         <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2806,119 +3051,192 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
         <v>74</v>
       </c>
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
       <c r="D50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>73</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
       <c r="D51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/resources/01 Verbs.xlsx
+++ b/resources/01 Verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D159C5-0CB0-2E41-A5D9-0B417A14474A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA699C3-A93C-A741-8655-DEAA5B578EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,22 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Verbs!$A$1:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Verbs!$A$1:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="329">
   <si>
     <t>esse</t>
   </si>
@@ -102,9 +110,6 @@
     <t>schreiben</t>
   </si>
   <si>
-    <t>write</t>
-  </si>
-  <si>
     <t>mögen</t>
   </si>
   <si>
@@ -171,9 +176,6 @@
     <t>study</t>
   </si>
   <si>
-    <t>Sie</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -192,9 +194,6 @@
     <t>arbeite</t>
   </si>
   <si>
-    <t xml:space="preserve">sind </t>
-  </si>
-  <si>
     <t>eat</t>
   </si>
   <si>
@@ -663,15 +662,6 @@
     <t>verkauft</t>
   </si>
   <si>
-    <t>wohne</t>
-  </si>
-  <si>
-    <t>wohnst</t>
-  </si>
-  <si>
-    <t>wohnt</t>
-  </si>
-  <si>
     <t>arbeitet</t>
   </si>
   <si>
@@ -747,15 +737,6 @@
     <t>hilfe</t>
   </si>
   <si>
-    <t>schreibe</t>
-  </si>
-  <si>
-    <t>schreibst</t>
-  </si>
-  <si>
-    <t>schreibt</t>
-  </si>
-  <si>
     <t>probieren</t>
   </si>
   <si>
@@ -844,9 +825,6 @@
   </si>
   <si>
     <t>ihr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sie </t>
   </si>
   <si>
     <r>
@@ -1115,9 +1093,6 @@
     <t>strong</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>komme</t>
   </si>
   <si>
@@ -1191,6 +1166,432 @@
   </si>
   <si>
     <t>ˈbrɪŋən</t>
+  </si>
+  <si>
+    <t>unregelmäßiges</t>
+  </si>
+  <si>
+    <t>gehe</t>
+  </si>
+  <si>
+    <t>gehst</t>
+  </si>
+  <si>
+    <t>geht</t>
+  </si>
+  <si>
+    <t>gehen</t>
+  </si>
+  <si>
+    <t>ˈɡeːən</t>
+  </si>
+  <si>
+    <t>schwaches</t>
+  </si>
+  <si>
+    <t>kochen</t>
+  </si>
+  <si>
+    <t>to cook</t>
+  </si>
+  <si>
+    <t>koche</t>
+  </si>
+  <si>
+    <t>kochst</t>
+  </si>
+  <si>
+    <t>kocht</t>
+  </si>
+  <si>
+    <t>ˈkɔxn</t>
+  </si>
+  <si>
+    <t>ˈhaisn</t>
+  </si>
+  <si>
+    <t>heiße</t>
+  </si>
+  <si>
+    <t>heißt</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>gebe</t>
+  </si>
+  <si>
+    <t>gibst</t>
+  </si>
+  <si>
+    <t>gibt</t>
+  </si>
+  <si>
+    <t>gebt</t>
+  </si>
+  <si>
+    <t>ˈɡeːbn</t>
+  </si>
+  <si>
+    <t>starkes</t>
+  </si>
+  <si>
+    <t>ˈvoːnən</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wohn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wohn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wohn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wohn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈʃraibn </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schreib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schreib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schreib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schreib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>spricht</t>
+  </si>
+  <si>
+    <t>sprecht</t>
+  </si>
+  <si>
+    <t>ˈʃprɛçn</t>
+  </si>
+  <si>
+    <t>isst</t>
+  </si>
+  <si>
+    <t>esst</t>
+  </si>
+  <si>
+    <t>ˈɛsn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>ˈfaːrən</t>
+  </si>
+  <si>
+    <t>fahre</t>
+  </si>
+  <si>
+    <t>fährt</t>
+  </si>
+  <si>
+    <t>fährst</t>
+  </si>
+  <si>
+    <t>fahrt</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>ˈleːzn</t>
+  </si>
+  <si>
+    <t>lese</t>
+  </si>
+  <si>
+    <t>liest</t>
+  </si>
+  <si>
+    <t>lest</t>
+  </si>
+  <si>
+    <t>Sie/sie</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>to have a bath</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>ˈbaːdn</t>
+  </si>
+  <si>
+    <t>bade</t>
+  </si>
+  <si>
+    <t>badest</t>
+  </si>
+  <si>
+    <t>badet</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>to look for</t>
+  </si>
+  <si>
+    <t>ˈzuːxn</t>
+  </si>
+  <si>
+    <t>suche</t>
+  </si>
+  <si>
+    <t>suchst</t>
+  </si>
+  <si>
+    <t>sucht</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>to show</t>
+  </si>
+  <si>
+    <t>erzählen</t>
+  </si>
+  <si>
+    <t>to tell</t>
+  </si>
+  <si>
+    <t>zeige</t>
+  </si>
+  <si>
+    <t>erzähle</t>
+  </si>
+  <si>
+    <t>ɛɐˈtsɛːlən</t>
+  </si>
+  <si>
+    <t>erzählst</t>
+  </si>
+  <si>
+    <t>erzählt</t>
+  </si>
+  <si>
+    <t>º</t>
   </si>
 </sst>
 </file>
@@ -1264,25 +1665,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -1459,29 +1842,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:K53" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J63" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:J63" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
     <filterColumn colId="0">
       <filters>
-        <filter val="bringen"/>
+        <filter val="erzählen"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J63">
+    <sortCondition ref="A1:A63"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{E4B399BA-18EE-7B45-A60A-87FA488B3B21}" name="verb"/>
     <tableColumn id="3" xr3:uid="{FACD9D36-D07A-CE42-A4CD-8531722F73DA}" name="meaning"/>
     <tableColumn id="1" xr3:uid="{C01E427A-7481-7041-AE7A-29D451F2A633}" name="IPA"/>
-    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{C12085EA-3831-4F45-B71A-DDC11A0CC4F4}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie/sie" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C12085EA-3831-4F45-B71A-DDC11A0CC4F4}" name="category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1808,117 +2190,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
+        <v>193</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1927,40 +2321,28 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="1" t="s">
-        <v>94</v>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>104</v>
@@ -1972,1271 +2354,1520 @@
         <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
-      <c r="A10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
-      <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+        <v>260</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
-      <c r="A23" t="s">
+      <c r="J28" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
-      <c r="A25" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="J32" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
-      <c r="A27" t="s">
+      <c r="H33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" hidden="1">
-      <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" t="s">
-        <v>153</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" hidden="1">
-      <c r="A31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
+    </row>
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" hidden="1">
+        <v>170</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
+      <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" hidden="1">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1">
+      <c r="A53" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="54" spans="1:10" hidden="1">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
-      <c r="A41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" hidden="1">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="B61" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" hidden="1">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" hidden="1">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" hidden="1">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" hidden="1">
-      <c r="A48" t="s">
+      <c r="C61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" hidden="1">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" hidden="1">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" hidden="1">
-      <c r="A51" t="s">
+      <c r="I62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
-      <c r="A52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" hidden="1">
-      <c r="A53" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>247</v>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/resources/01 Verbs.xlsx
+++ b/resources/01 Verbs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA699C3-A93C-A741-8655-DEAA5B578EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F3776-CA38-7947-B9FB-BD658361F02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,7 +1846,7 @@
   <autoFilter ref="A1:J63" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
     <filterColumn colId="0">
       <filters>
-        <filter val="erzählen"/>
+        <filter val="spielen"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2193,8 +2193,8 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>12</v>
       </c>

--- a/resources/01 Verbs.xlsx
+++ b/resources/01 Verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F3776-CA38-7947-B9FB-BD658361F02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F56C6-C3D9-924C-BF5E-CDE7952A6706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Verbs!$A$1:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Verbs!$B$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="354">
   <si>
     <t>esse</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>lesen</t>
-  </si>
-  <si>
-    <t>read</t>
   </si>
   <si>
     <t>bringen</t>
@@ -1102,9 +1099,6 @@
     <t>kommt</t>
   </si>
   <si>
-    <t>komment</t>
-  </si>
-  <si>
     <t>ˈkɔmən</t>
   </si>
   <si>
@@ -1591,7 +1585,88 @@
     <t>erzählt</t>
   </si>
   <si>
-    <t>º</t>
+    <t>ˈarbaitn</t>
+  </si>
+  <si>
+    <t>bəˈʦaːlən</t>
+  </si>
+  <si>
+    <t>bezahle</t>
+  </si>
+  <si>
+    <t>bezahlst</t>
+  </si>
+  <si>
+    <t>bezahlt</t>
+  </si>
+  <si>
+    <t>ˈliːɡn</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>einladen</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>ˈainlaːdən</t>
+  </si>
+  <si>
+    <t>lade ein</t>
+  </si>
+  <si>
+    <t>lädst ein</t>
+  </si>
+  <si>
+    <t>lädt ein</t>
+  </si>
+  <si>
+    <t>laden ein</t>
+  </si>
+  <si>
+    <t>ladet ein</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>halten</t>
+  </si>
+  <si>
+    <t>ˈhaltn</t>
+  </si>
+  <si>
+    <t>to hold</t>
+  </si>
+  <si>
+    <t>halte</t>
+  </si>
+  <si>
+    <t>hältst</t>
+  </si>
+  <si>
+    <t>hält</t>
+  </si>
+  <si>
+    <t>haltet</t>
+  </si>
+  <si>
+    <t>mitkommen</t>
+  </si>
+  <si>
+    <t>komme mit</t>
+  </si>
+  <si>
+    <t>kommst mit</t>
+  </si>
+  <si>
+    <t>kommt mit</t>
+  </si>
+  <si>
+    <t>kommen mit</t>
   </si>
 </sst>
 </file>
@@ -1842,16 +1917,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J63" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:J63" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="B1:K65" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:K65" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}">
     <filterColumn colId="0">
       <filters>
-        <filter val="spielen"/>
+        <filter val="suchen"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J63">
-    <sortCondition ref="A1:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K62">
+    <sortCondition ref="B1:B62"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{E4B399BA-18EE-7B45-A60A-87FA488B3B21}" name="verb"/>
@@ -2190,1685 +2265,1792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1">
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" hidden="1">
-      <c r="A3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1">
-      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1">
-      <c r="A6" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1">
-      <c r="A7" s="1" t="s">
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" hidden="1">
-      <c r="A8" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1">
-      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1">
-      <c r="A10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" t="s">
-        <v>321</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" t="s">
-        <v>182</v>
-      </c>
-      <c r="I14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1">
-      <c r="A20" t="s">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
       <c r="B21" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>160</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
-      </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1">
-      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1">
-      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" t="s">
-        <v>224</v>
-      </c>
-      <c r="I26" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1">
-      <c r="A27" t="s">
+    </row>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>166</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1">
-      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>240</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1">
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
+      <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1">
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" hidden="1">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1">
-      <c r="A31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1">
-      <c r="A35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1">
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
+      <c r="B62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" t="s">
+        <v>335</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" hidden="1">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" t="s">
         <v>219</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1">
-      <c r="A38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" t="s">
-        <v>147</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1">
-      <c r="A45" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" hidden="1">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" hidden="1">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" hidden="1">
-      <c r="A48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
-      <c r="A50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
-      <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" hidden="1">
-      <c r="A53" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" hidden="1">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" hidden="1">
-      <c r="A59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" hidden="1">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" hidden="1">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" hidden="1">
-      <c r="A63" t="s">
-        <v>319</v>
-      </c>
-      <c r="B63" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" t="s">
-        <v>328</v>
-      </c>
+      <c r="E65" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
